--- a/data/health.xlsx
+++ b/data/health.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2179EE89-54AB-444A-A5B2-29AF14B5068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4571B-7330-4BC0-8725-5DD44257A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B89037B9-EBBE-4C65-B8F4-C8BDC65307B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{B89037B9-EBBE-4C65-B8F4-C8BDC65307B2}"/>
   </bookViews>
   <sheets>
     <sheet name="morbidities" sheetId="3" r:id="rId1"/>
     <sheet name="mortalities" sheetId="1" r:id="rId2"/>
-    <sheet name="morb+mort" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
-    <sheet name="8 weeks" sheetId="4" r:id="rId8"/>
-    <sheet name="animal inventory" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId3"/>
+    <sheet name="morb+mort" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId8"/>
+    <sheet name="8 weeks" sheetId="4" r:id="rId9"/>
+    <sheet name="animal inventory" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="38" r:id="rId11"/>
+    <pivotCache cacheId="39" r:id="rId12"/>
+    <pivotCache cacheId="76" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="30">
   <si>
     <t>Tank</t>
   </si>
@@ -132,6 +134,12 @@
   </si>
   <si>
     <t>mortalities</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -1564,6 +1572,75 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aimee Cloete" refreshedDate="45261.863766666669" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="641" xr:uid="{2E9FC060-18B7-430E-861A-DC9B151239A2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="morb+mort"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Week" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="24" count="25">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tank" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Diet" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="formulated"/>
+        <s v="mixed"/>
+        <s v="ulva"/>
+        <s v="kelp"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Temperature" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="warm"/>
+        <s v="ambient"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mortalities" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Morbidities" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
@@ -8186,9 +8263,5273 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="641">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="28"/>
+    <x v="2"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33233AEE-3054-4629-90AE-384ADC79257C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5596C9C-9913-440B-ACDD-BA9F9C72B2C8}" name="PivotTable42" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Morbidities" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Mortalities" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33233AEE-3054-4629-90AE-384ADC79257C}" name="PivotTable6" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" showAll="0">
       <items count="26">
@@ -8284,7 +13625,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -8297,6 +13638,9 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8305,7 +13649,7 @@
     <field x="3"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="8">
     <i>
       <x/>
       <x/>
@@ -8320,6 +13664,13 @@
     <i r="1" i="1">
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8328,11 +13679,11 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="0" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Mortalities" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Morbidities" fld="5" baseField="2" baseItem="1"/>
+    <dataField name="Sum of Morbidities" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8346,8 +13697,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CF2DCE5-9773-468F-BEEC-B259AE9A3D14}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0CF2DCE5-9773-468F-BEEC-B259AE9A3D14}" name="PivotTable1" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -8753,7 +14104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74C1B65-A79D-4F2A-926D-0A857F3EB95A}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B34" sqref="B34:I34"/>
     </sheetView>
@@ -9219,6 +14570,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813D1C4F-F731-497C-8B75-1FF3CEF1E9D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9663,11 +15026,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1965F2DE-FF0F-41A7-A515-CCA873CD81E8}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>169</v>
+      </c>
+      <c r="I11" s="4">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0241AB4B-60B3-40D7-9EC4-E8D7442C6EE3}">
   <dimension ref="A1:F641"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScale="85" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="M635" sqref="M635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18977,12 +24555,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2DE1F0-AFD9-4ADD-93DB-C85453046054}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18992,12 +24570,14 @@
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -19008,20 +24588,20 @@
     <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -19029,13 +24609,16 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -19051,76 +24634,147 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>4</v>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>86</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -19128,7 +24782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826BEA38-620C-4A5C-B073-FC1A77DA2241}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -19168,7 +24822,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -19179,7 +24833,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -19190,7 +24844,7 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
@@ -19201,7 +24855,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -19212,7 +24866,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -19223,10 +24877,10 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>2</v>
       </c>
     </row>
@@ -19237,10 +24891,10 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -19251,10 +24905,10 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
@@ -19265,7 +24919,7 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>2</v>
       </c>
     </row>
@@ -19276,7 +24930,7 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>2</v>
       </c>
     </row>
@@ -19287,7 +24941,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>2</v>
       </c>
     </row>
@@ -19298,7 +24952,7 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>2</v>
       </c>
     </row>
@@ -19309,7 +24963,7 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>2</v>
       </c>
     </row>
@@ -19320,7 +24974,7 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>2</v>
       </c>
     </row>
@@ -19331,7 +24985,7 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>2</v>
       </c>
     </row>
@@ -19342,7 +24996,7 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>2</v>
       </c>
     </row>
@@ -19351,7 +25005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A8FD2B-ED95-473D-8351-0432E366A2F0}">
   <dimension ref="A3:D9"/>
   <sheetViews>
@@ -19476,12 +25130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E487D-954E-46C8-98B3-E0DD4E2AD6E6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19562,12 +25216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B867C0DF-0826-4D16-B7B2-070551F080FD}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20298,16 +25952,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813D1C4F-F731-497C-8B75-1FF3CEF1E9D8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>